--- a/attributs.xlsx
+++ b/attributs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="noeuds" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -133,18 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">Comprends tous les travaux exécutés en classe, comme le BIO109 et le BIO500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si le cours est donné à distance (1) ou en présence (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">groupes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si le cours est en présence, un seul groupe (0) ou plusieurs groupes (1)</t>
   </si>
   <si>
     <t xml:space="preserve">libre</t>
@@ -264,8 +252,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -273,7 +261,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.5"/>
   </cols>
   <sheetData>
@@ -391,7 +379,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -498,10 +486,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -609,40 +597,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
